--- a/Excels/RW任务表.xlsx
+++ b/Excels/RW任务表.xlsx
@@ -31,7 +31,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>json</t>
+    <t>dict&lt;string,string&gt;</t>
   </si>
   <si>
     <t>id</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,15 +136,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,50 +169,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,26 +182,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,17 +219,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,9 +243,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,12 +301,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,115 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,49 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,45 +506,6 @@
       </top>
       <bottom style="dashed">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,11 +534,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +580,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,151 +612,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1162,7 +1162,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="13.5" spans="1:13">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>

--- a/Excels/RW任务表.xlsx
+++ b/Excels/RW任务表.xlsx
@@ -19,7 +19,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>#name mission</t>
+    <t>#name CfgMission</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -40,37 +40,37 @@
     <t>name</t>
   </si>
   <si>
-    <t>class_path_lua</t>
-  </si>
-  <si>
-    <t>class_path_cs</t>
-  </si>
-  <si>
-    <t>type_1</t>
-  </si>
-  <si>
-    <t>type_2</t>
-  </si>
-  <si>
-    <t>finish_condition</t>
-  </si>
-  <si>
-    <t>is_auto_check_finish</t>
-  </si>
-  <si>
-    <t>onAccept_doerEvent_id</t>
-  </si>
-  <si>
-    <t>onFinish_doerEvent_id</t>
-  </si>
-  <si>
-    <t>onGiveUp_doerEvent_id</t>
-  </si>
-  <si>
-    <t>reward_dict</t>
-  </si>
-  <si>
-    <t>find_item_dict</t>
+    <t>classPathLua</t>
+  </si>
+  <si>
+    <t>classPathCs</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>finishCondition</t>
+  </si>
+  <si>
+    <t>isAutoCheckFinish</t>
+  </si>
+  <si>
+    <t>onAcceptDoerEventId</t>
+  </si>
+  <si>
+    <t>onFinishDoerEventId</t>
+  </si>
+  <si>
+    <t>onGiveUpDoerEventId</t>
+  </si>
+  <si>
+    <t>rewardDict</t>
+  </si>
+  <si>
+    <t>findItemDict</t>
   </si>
   <si>
     <t>ID</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,6 +136,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -144,53 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,83 +275,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,16 +510,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -564,11 +564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,17 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,151 +612,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1162,7 +1162,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="13.5" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>

--- a/Excels/RW任务表.xlsx
+++ b/Excels/RW任务表.xlsx
@@ -13,31 +13,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name CfgMission</t>
-  </si>
-  <si>
-    <t>#index unique id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>dict&lt;string,string&gt;</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>defualt</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>isOutput</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>CfgMission</t>
+  </si>
+  <si>
+    <t>outputDir</t>
+  </si>
+  <si>
+    <t>uniqueIndexesList</t>
+  </si>
+  <si>
+    <t>multiplyIndexesList</t>
+  </si>
+  <si>
+    <t>headCommentRowIndex</t>
+  </si>
+  <si>
+    <t>headRowIndex</t>
+  </si>
+  <si>
+    <t>dataStartRowIndex</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
   </si>
   <si>
     <t>classPathLua</t>
@@ -52,33 +98,6 @@
     <t>type2</t>
   </si>
   <si>
-    <t>finishCondition</t>
-  </si>
-  <si>
-    <t>isAutoCheckFinish</t>
-  </si>
-  <si>
-    <t>onAcceptDoerEventId</t>
-  </si>
-  <si>
-    <t>onFinishDoerEventId</t>
-  </si>
-  <si>
-    <t>onGiveUpDoerEventId</t>
-  </si>
-  <si>
-    <t>rewardDict</t>
-  </si>
-  <si>
-    <t>findItemDict</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
     <t>完成的条件</t>
   </si>
   <si>
@@ -98,6 +117,51 @@
   </si>
   <si>
     <t>寻找物品</t>
+  </si>
+  <si>
+    <t>id(string)</t>
+  </si>
+  <si>
+    <t>name(string)</t>
+  </si>
+  <si>
+    <t>classPathLua(string)</t>
+  </si>
+  <si>
+    <t>classPathCs(string)</t>
+  </si>
+  <si>
+    <t>type1(string)</t>
+  </si>
+  <si>
+    <t>type2(string)</t>
+  </si>
+  <si>
+    <t>finishCondition(string)</t>
+  </si>
+  <si>
+    <t>isAutoCheckFinish(bool)</t>
+  </si>
+  <si>
+    <t>onAcceptDoerEventId(string)</t>
+  </si>
+  <si>
+    <t>onFinishDoerEventId(string)</t>
+  </si>
+  <si>
+    <t>onGiveUpDoerEventId(string)</t>
+  </si>
+  <si>
+    <t>rewardDict(json)</t>
+  </si>
+  <si>
+    <t>findItemDict(json)</t>
+  </si>
+  <si>
+    <t>rewardDict(dict&lt;string,string&gt;)</t>
+  </si>
+  <si>
+    <t>findItemDict(dict&lt;string,string&gt;)</t>
   </si>
   <si>
     <t>任务1</t>
@@ -111,12 +175,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +200,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -143,25 +258,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,111 +337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -289,13 +358,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399670400097659"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,181 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,17 +579,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +593,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,16 +630,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,29 +670,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +699,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +837,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,26 +1194,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.375" style="1" customWidth="1"/>
-    <col min="9" max="13" width="23.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="11" width="30.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="37.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1151,151 +1225,279 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" ht="13.5" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:13">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1303,5 +1505,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>